--- a/TestCase/TestCase.xlsx
+++ b/TestCase/TestCase.xlsx
@@ -85,7 +85,7 @@
     <t>GET</t>
   </si>
   <si>
-    <t>{"phoneNum":"13686810032"}</t>
+    <t>{"phoneNum":"1"}</t>
   </si>
   <si>
     <t>"statusCode":200</t>
@@ -1057,7 +1057,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
